--- a/target/test-classes/ProjectData.xlsx
+++ b/target/test-classes/ProjectData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAFox\WorkspaceBatch6\TestNGHybridFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC089B8-7728-433C-947C-D5680A474AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4A346-AD43-4B6E-81DD-45FE8AB4802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="DataDrivenSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>url</t>
   </si>
@@ -82,6 +83,60 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>fghij</t>
+  </si>
+  <si>
+    <t>klmno</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>afdsasdf</t>
+  </si>
+  <si>
+    <t>afsdasdf</t>
+  </si>
+  <si>
+    <t>ererer</t>
+  </si>
+  <si>
+    <t>erere</t>
+  </si>
+  <si>
+    <t>fffsf</t>
+  </si>
+  <si>
+    <t>fdsff</t>
+  </si>
+  <si>
+    <t>amotoorib6@gmail.com</t>
+  </si>
+  <si>
+    <t>vdb6@gmail.com</t>
+  </si>
+  <si>
+    <t>tbb6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -105,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +173,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,12 +203,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +232,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -545,4 +623,101 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51684B6B-2054-4E25-B560-ACCA9C2FBF3E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{9A2082DE-0107-4914-B689-40D51C3EE51C}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{DFBF2249-D67D-4E81-B063-89E98D040673}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{BF7100A3-1D15-49A2-9C6D-86070464D526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>